--- a/DS_Mystery/Asia stock management/output/Дефициты АЛМ 2023-06-21.xlsx
+++ b/DS_Mystery/Asia stock management/output/Дефициты АЛМ 2023-06-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,14 +696,14 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1031</v>
+        <v>896</v>
       </c>
       <c r="B5" t="n">
-        <v>115422</v>
+        <v>112278</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 300 мл "Сп", прозр., ПЭТ, 50 шт/упак</t>
+          <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -723,33 +723,33 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Стаканы ПЭТ от 300 мл</t>
+          <t>Сахар</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7818352059925093</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="K5" t="n">
-        <v>25.5</v>
+        <v>4.26</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>29697.6004561685</v>
+        <v>114180.6770585494</v>
       </c>
       <c r="N5" t="n">
-        <v>757288.8116322969</v>
+        <v>486409.6842694203</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -885,14 +885,14 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>529</v>
+        <v>1031</v>
       </c>
       <c r="B8" t="n">
-        <v>108197</v>
+        <v>115422</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Пакет [320+200]х370 мм с плоск. ручками, крафт, бум., 250 шт/кор. (ООО Тек-Пак)</t>
+          <t>Стакан-шейкер одноразовый 300 мл "Сп", прозр., ПЭТ, 50 шт/упак</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -912,33 +912,33 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Пакеты-сумки</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Пакеты бумажные с плоскими ручками бурый крафт</t>
+          <t>Стаканы ПЭТ от 300 мл</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9245261076869403</v>
+        <v>0.7818352059925093</v>
       </c>
       <c r="K8" t="n">
-        <v>47.95</v>
+        <v>25.5</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>4873.314601380231</v>
+        <v>9697.600456168504</v>
       </c>
       <c r="N8" t="n">
-        <v>233675.4351361821</v>
+        <v>247288.8116322969</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -948,14 +948,14 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="B9" t="n">
-        <v>107440</v>
+        <v>108197</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Крышка для стакана d 95 мм "Upax-Unity" куполообразная с отверстием, прозр., ПЭТ, 50 шт/упак</t>
+          <t>Пакет [320+200]х370 мм с плоск. ручками, крафт, бум., 250 шт/кор. (ООО Тек-Пак)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -975,22 +975,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Пакеты-сумки</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Крышки ПЭТ куполообразные</t>
+          <t>Пакеты бумажные с плоскими ручками бурый крафт</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2964116605332898</v>
+        <v>0.9245261076869403</v>
       </c>
       <c r="K9" t="n">
-        <v>7.88</v>
+        <v>47.95</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25802.11295082619</v>
+        <v>4873.314601380231</v>
       </c>
       <c r="N9" t="n">
-        <v>203320.6500525103</v>
+        <v>233675.4351361821</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1011,14 +1011,14 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1126</v>
+        <v>495</v>
       </c>
       <c r="B10" t="n">
-        <v>191610</v>
+        <v>107440</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Коробка для бургера [бургербокс] 154х152х88 мм "GREEN MYSTERY", бел., сах.тростник, 50 шт/упак</t>
+          <t>Крышка для стакана d 95 мм "Upax-Unity" куполообразная с отверстием, прозр., ПЭТ, 50 шт/упак</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hangzhou Tomato</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1038,22 +1038,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Упаковка пищевая бум</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Бургербоксы из сахарного тростника</t>
+          <t>Крышки ПЭТ куполообразные</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>0.398921832884097</v>
+        <v>0.2964116605332898</v>
       </c>
       <c r="K10" t="n">
-        <v>56.39</v>
+        <v>7.88</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3505.793311942596</v>
+        <v>25802.11295082619</v>
       </c>
       <c r="N10" t="n">
-        <v>197691.684860443</v>
+        <v>203320.6500525103</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1074,14 +1074,14 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>244</v>
+        <v>1126</v>
       </c>
       <c r="B11" t="n">
-        <v>103186</v>
+        <v>191610</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 125 мм, бел., ПС, 200 шт/упак (ООО Пласт-Сервис Плюс)</t>
+          <t>Коробка для бургера [бургербокс] 154х152х88 мм "GREEN MYSTERY", бел., сах.тростник, 50 шт/упак</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ПЛАСТ-СЕРВИС ПЛ</t>
+          <t>Hangzhou Tomato</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1101,22 +1101,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Упаковка пищевая бум</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Ложки пластиковые чайные и проч. белые</t>
+          <t>Бургербоксы из сахарного тростника</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4591346153846154</v>
+        <v>0.398921832884097</v>
       </c>
       <c r="K11" t="n">
-        <v>2.63</v>
+        <v>56.39</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>74668.1002358563</v>
+        <v>3505.793311942596</v>
       </c>
       <c r="N11" t="n">
-        <v>196377.103620302</v>
+        <v>197691.684860443</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1137,14 +1137,14 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>434</v>
+        <v>244</v>
       </c>
       <c r="B12" t="n">
-        <v>106525</v>
+        <v>103186</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
+          <t>Ложка одноразовая 125 мм, бел., ПС, 200 шт/упак (ООО Пласт-Сервис Плюс)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
+          <t>ПЛАСТ-СЕРВИС ПЛ</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1164,22 +1164,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Размешиватели из натуральных материалов</t>
+          <t>Ложки пластиковые чайные и проч. белые</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6259842519685039</v>
+        <v>0.4591346153846154</v>
       </c>
       <c r="K12" t="n">
-        <v>1.98</v>
+        <v>2.63</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>91412.4926419242</v>
+        <v>74668.1002358563</v>
       </c>
       <c r="N12" t="n">
-        <v>180996.7354310099</v>
+        <v>196377.103620302</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1200,14 +1200,14 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>896</v>
+        <v>486</v>
       </c>
       <c r="B13" t="n">
-        <v>112278</v>
+        <v>107255</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+          <t>Крышка для стакана d 90 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1227,22 +1227,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Сахар</t>
+          <t>Крышки ПП для стаканов</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>0.425531914893617</v>
+        <v>0.505886821116597</v>
       </c>
       <c r="K13" t="n">
-        <v>4.26</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>42180.67705854937</v>
+        <v>19657.20224356599</v>
       </c>
       <c r="N13" t="n">
-        <v>179689.6842694203</v>
+        <v>194016.5861439963</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1263,14 +1263,14 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="B14" t="n">
-        <v>102340</v>
+        <v>106525</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. 124,5х124,5х59,8 мм "Upax-Unity", без крышки, прозр., ПЭТ, 50 шт/упак</t>
+          <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1290,33 +1290,33 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПЭТ прямоугольные прозрачные от 500 мл</t>
+          <t>Размешиватели из натуральных материалов</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.6259842519685039</v>
       </c>
       <c r="K14" t="n">
-        <v>14.28</v>
+        <v>1.98</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>8815.124666467293</v>
+        <v>91412.4926419242</v>
       </c>
       <c r="N14" t="n">
-        <v>125879.9802371529</v>
+        <v>180996.7354310099</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1389,14 +1389,14 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>315</v>
+        <v>171</v>
       </c>
       <c r="B16" t="n">
-        <v>104280</v>
+        <v>102340</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
+          <t>Контейнер 500 мл 1-секц. 124,5х124,5х59,8 мм "Upax-Unity", без крышки, прозр., ПЭТ, 50 шт/упак</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ФЛАЙПАК-С ООО</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1416,33 +1416,33 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Стаканы ПП 200 мл прозрачные</t>
+          <t>Контейнеры универсальные ПЭТ прямоугольные прозрачные от 500 мл</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3740157480314961</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.98</v>
+        <v>13.97</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>37914.93628353394</v>
+        <v>8815.124666467293</v>
       </c>
       <c r="N16" t="n">
-        <v>112986.5101249311</v>
+        <v>123147.2915905481</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1452,14 +1452,14 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>835</v>
+        <v>315</v>
       </c>
       <c r="B17" t="n">
-        <v>111401</v>
+        <v>104280</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Чашка кофейная 200 мл, коричн.-бел., ПП, 50 шт/упак (ООО Интропластика)</t>
+          <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ПРОМА ООО</t>
+          <t>ФЛАЙПАК-С ООО</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Чашки кофейные 200 мл</t>
+          <t>Стаканы ПП 200 мл прозрачные</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8698453608247423</v>
+        <v>0.3740157480314961</v>
       </c>
       <c r="K17" t="n">
-        <v>11.63</v>
+        <v>2.98</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1502,10 +1502,10 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>8907.944406157949</v>
+        <v>37914.93628353394</v>
       </c>
       <c r="N17" t="n">
-        <v>103599.393443617</v>
+        <v>112986.5101249311</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1515,14 +1515,14 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>498</v>
+        <v>835</v>
       </c>
       <c r="B18" t="n">
-        <v>107469</v>
+        <v>111401</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Капхолдер [манжета] 56x288 мм, крафт, карт., 450 шт/кор (ООО Типография Альбатрос)</t>
+          <t>Чашка кофейная 200 мл, коричн.-бел., ПП, 50 шт/упак (ООО Интропластика)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ТИПОГРАФИЯ АЛЬБ</t>
+          <t>ПРОМА ООО</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1547,28 +1547,28 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Капхолдеры для стаканов</t>
+          <t>Чашки кофейные 200 мл</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8316831683168316</v>
+        <v>0.8698453608247423</v>
       </c>
       <c r="K18" t="n">
-        <v>7.88</v>
+        <v>11.63</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>12149.29979673621</v>
+        <v>8907.944406157949</v>
       </c>
       <c r="N18" t="n">
-        <v>95736.48239828135</v>
+        <v>103599.393443617</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1578,14 +1578,14 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1171</v>
+        <v>498</v>
       </c>
       <c r="B19" t="n">
-        <v>255013</v>
+        <v>107469</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Супница 500 мл, d121х h72 мм, без крышки, корич.-бел., карт., 500 шт/кор. (ООО СПбПК)</t>
+          <t>Капхолдер [манжета] 56x288 мм, крафт, карт., 450 шт/кор (ООО Типография Альбатрос)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>СПБПК (Санкт-Пе</t>
+          <t>ТИПОГРАФИЯ АЛЬБ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1605,22 +1605,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Супницы и крышки</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Супницы от 500 мл</t>
+          <t>Капхолдеры для стаканов</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.8316831683168316</v>
       </c>
       <c r="K19" t="n">
-        <v>48.3</v>
+        <v>7.88</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1969.187444411215</v>
+        <v>12149.29979673621</v>
       </c>
       <c r="N19" t="n">
-        <v>95111.75356506169</v>
+        <v>95736.48239828135</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1641,14 +1641,14 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="B20" t="n">
-        <v>254106</v>
+        <v>255013</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 250х207х61 мм, бел., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
+          <t>Супница 500 мл, d121х h72 мм, без крышки, корич.-бел., карт., 500 шт/кор. (ООО СПбПК)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХОЛДИНГ ПРОТЭК </t>
+          <t>СПБПК (Санкт-Пе</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Лотки и ланч-боксы</t>
+          <t>Супницы и крышки</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Ланч-боксы ВПС 1-секционные белые</t>
+          <t>Супницы от 500 мл</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>20.03</v>
+        <v>48.3</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>4726.049866586917</v>
+        <v>1969.187444411215</v>
       </c>
       <c r="N20" t="n">
-        <v>94662.77882773595</v>
+        <v>95111.75356506169</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1704,14 +1704,14 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>880</v>
+        <v>1163</v>
       </c>
       <c r="B21" t="n">
-        <v>112112</v>
+        <v>254106</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 650 мл, диз. "Bubble Cup", прозр., ПП, 10 шт/упак (ООО ВЗЛП)</t>
+          <t>Ланч-бокс 1-секц. 250х207х61 мм, бел., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t xml:space="preserve">ХОЛДИНГ ПРОТЭК </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Лотки и ланч-боксы</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Стаканы ПП от 500 мл прозрачные</t>
+          <t>Ланч-боксы ВПС 1-секционные белые</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>74.36</v>
+        <v>20.03</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1181.51246664673</v>
+        <v>4726.049866586917</v>
       </c>
       <c r="N21" t="n">
-        <v>87857.26701985083</v>
+        <v>94662.77882773595</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1767,24 +1767,24 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>372</v>
+        <v>880</v>
       </c>
       <c r="B22" t="n">
-        <v>105397</v>
+        <v>112112</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Контейнер 750 мл 1-секц. 186х132х45 мм серия 186, без крышки, прозр., ПП, 500 шт/кор. (ТОО Аке Пласт</t>
+          <t>Стакан одноразовый 650 мл, диз. "Bubble Cup", прозр., ПП, 10 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1794,33 +1794,33 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП прямоугольные прозрачные 750-999 мл</t>
+          <t>Стаканы ПП от 500 мл прозрачные</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6993006993006993</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>15.99</v>
+        <v>74.36</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>5054.677655737158</v>
+        <v>1181.51246664673</v>
       </c>
       <c r="N22" t="n">
-        <v>80824.29571523715</v>
+        <v>87857.26701985083</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1830,14 +1830,14 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>104</v>
+        <v>372</v>
       </c>
       <c r="B23" t="n">
-        <v>101371</v>
+        <v>105397</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Сахар порционный 5 г, стик, 2000 шт/упак (ТОО Emin LTD)</t>
+          <t>Контейнер 750 мл 1-секц. 186х132х45 мм серия 186, без крышки, прозр., ПП, 500 шт/кор. (ТОО Аке Пласт</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ТОО "ЭМИН LTD"</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1857,22 +1857,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Сахар</t>
+          <t>Контейнеры универсальные ПП прямоугольные прозрачные 750-999 мл</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4186728072011723</v>
+        <v>0.6993006993006993</v>
       </c>
       <c r="K23" t="n">
-        <v>6150</v>
+        <v>15.99</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>12.54040173521352</v>
+        <v>5054.677655737158</v>
       </c>
       <c r="N23" t="n">
-        <v>77123.47067156316</v>
+        <v>80824.29571523715</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1893,24 +1893,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>873</v>
+        <v>104</v>
       </c>
       <c r="B24" t="n">
-        <v>112007</v>
+        <v>101371</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 200 мл, диз. "Кристалл", прозр., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+          <t>Сахар порционный 5 г, стик, 2000 шт/упак (ТОО Emin LTD)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ТОО "ЭМИН LTD"</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1920,33 +1920,33 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Стаканы ПС 200 мл прозрачные</t>
+          <t>Сахар</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>0.875</v>
+        <v>0.4186728072011723</v>
       </c>
       <c r="K24" t="n">
-        <v>29.33</v>
+        <v>6150</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2356.344771007811</v>
+        <v>12.54040173521352</v>
       </c>
       <c r="N24" t="n">
-        <v>69111.59213365908</v>
+        <v>77123.47067156316</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1956,14 +1956,14 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B25" t="n">
-        <v>112111</v>
+        <v>112007</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 500 мл, диз. "Bubble Cup", прозр., ПП, 20 шт/упак (ООО ВЗЛП)</t>
+          <t>Стакан одноразовый 200 мл, диз. "Кристалл", прозр., ПС, 50 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1988,17 +1988,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Стаканы ПП от 500 мл прозрачные</t>
+          <t>Стаканы ПС 200 мл прозрачные</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K25" t="n">
-        <v>53.34</v>
+        <v>29.33</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1260.279964423178</v>
+        <v>2356.344771007811</v>
       </c>
       <c r="N25" t="n">
-        <v>67223.33330233232</v>
+        <v>69111.59213365908</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2019,14 +2019,14 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>353</v>
+        <v>879</v>
       </c>
       <c r="B26" t="n">
-        <v>105125</v>
+        <v>112111</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Стакан бумажный 350 мл 1 сл., d90 мм, крафт., карт., 50 шт/упак (ООО Термо-Кап)</t>
+          <t>Стакан одноразовый 500 мл, диз. "Bubble Cup", прозр., ПП, 20 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ТЕРМО-КАП ООО</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2051,28 +2051,28 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Стаканы бумажные 300-390 мл белые, крафт 1-слойные</t>
+          <t>Стаканы ПП от 500 мл прозрачные</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6036363636363636</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>24.64</v>
+        <v>53.34</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2431.731352453385</v>
+        <v>1260.279964423178</v>
       </c>
       <c r="N26" t="n">
-        <v>59917.8605244514</v>
+        <v>67223.33330233232</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2082,14 +2082,14 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>963</v>
+        <v>842</v>
       </c>
       <c r="B27" t="n">
-        <v>112852</v>
+        <v>111502</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Напра)</t>
+          <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2099,41 +2099,43 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>НАПРА ООО</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
+          <t>ВЗЛП ООО</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Стаканы ПП 200 мл прозрачные</t>
+          <t>Ложки пластиковые столовые белые 165 мм</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9940476190476191</v>
+        <v>0.6524184476940382</v>
       </c>
       <c r="K27" t="n">
-        <v>3.16</v>
+        <v>3.84</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>18772.40657796243</v>
+        <v>16910.16694545915</v>
       </c>
       <c r="N27" t="n">
-        <v>59320.80478636127</v>
+        <v>64935.04107056312</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2143,14 +2145,14 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>49</v>
+        <v>353</v>
       </c>
       <c r="B28" t="n">
-        <v>100643</v>
+        <v>105125</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Пакет вакуум. 200х300мм (прозр.) 70(65)мкм (РЕТ/РЕ)</t>
+          <t>Стакан бумажный 350 мл 1 сл., d90 мм, крафт., карт., 50 шт/упак (ООО Термо-Кап)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2160,32 +2162,32 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ЭКСПО МАРКЕТ ТЕ</t>
+          <t>ТЕРМО-КАП ООО</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Пакеты вакуумные 65 (70) мкм</t>
+          <t>Стаканы бумажные 300-390 мл белые, крафт 1-слойные</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.6036363636363636</v>
       </c>
       <c r="K28" t="n">
-        <v>20669.50974817865</v>
+        <v>24.64</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2193,10 +2195,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2.834001636632503</v>
+        <v>2431.731352453385</v>
       </c>
       <c r="N28" t="n">
-        <v>58577.42445472977</v>
+        <v>59917.8605244514</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2206,14 +2208,14 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1111</v>
+        <v>963</v>
       </c>
       <c r="B29" t="n">
-        <v>191014</v>
+        <v>112852</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Крышка для стакана d 90 мм с отверстием "GREEN MYSTERY", бел., сах. тростник, 50 шт/упак</t>
+          <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Напра)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2223,13 +2225,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hangzhou Tomato</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
+          <t>НАПРА ООО</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2238,17 +2238,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Крышки из натуральных материалов для стаканов</t>
+          <t>Стаканы ПП 200 мл прозрачные</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0.9940476190476191</v>
       </c>
       <c r="K29" t="n">
-        <v>25.36</v>
+        <v>3.16</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2256,10 +2256,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1969.187444411215</v>
+        <v>18772.40657796243</v>
       </c>
       <c r="N29" t="n">
-        <v>49938.59359026841</v>
+        <v>59320.80478636127</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2269,49 +2269,49 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>357</v>
+        <v>49</v>
       </c>
       <c r="B30" t="n">
-        <v>105193</v>
+        <v>100643</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Контейнер для суши 4-секц. 245х167х62 мм, без крышки, прозр., ПЭТ, 200  шт/кор</t>
+          <t>Пакет вакуум. 200х300мм (прозр.) 70(65)мкм (РЕТ/РЕ)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ЭКСПО МАРКЕТ ТЕ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Контейнеры для суши </t>
+          <t>Пакеты фасовочные</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Контейнеры для суши универсальные многосекционные</t>
+          <t>Пакеты вакуумные 65 (70) мкм</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="K30" t="n">
-        <v>49.2</v>
+        <v>20669.50974817865</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1008.155977295705</v>
+        <v>2.834001636632503</v>
       </c>
       <c r="N30" t="n">
-        <v>49601.2740829487</v>
+        <v>58577.42445472977</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2332,14 +2332,14 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>147</v>
+        <v>1111</v>
       </c>
       <c r="B31" t="n">
-        <v>102054</v>
+        <v>191014</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Соусник под запайку 80 мл, 1-секц., d75х h34 мм, бел., ПП, 50 шт/упак (ЗАО Перинт)</t>
+          <t>Крышка для стакана d 90 мм с отверстием "GREEN MYSTERY", бел., сах. тростник, 50 шт/упак</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2349,22 +2349,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ПЕРИНТ АО</t>
+          <t>Hangzhou Tomato</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Контейнеры под запай</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Соусники под запайку</t>
+          <t>Крышки из натуральных материалов для стаканов</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>11.43</v>
+        <v>25.36</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>4326.940518361526</v>
+        <v>1969.187444411215</v>
       </c>
       <c r="N31" t="n">
-        <v>49456.93012487225</v>
+        <v>49938.59359026841</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>908</v>
+        <v>357</v>
       </c>
       <c r="B32" t="n">
-        <v>112351</v>
+        <v>105193</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Пакет Zip-Lock 150х220 мм, 35 мкм, прозр., ПВД, 100 шт/упак</t>
+          <t>Контейнер для суши 4-секц. 245х167х62 мм, без крышки, прозр., ПЭТ, 200  шт/кор</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ирмас Лтд ТОО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2422,33 +2422,33 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные</t>
+          <t xml:space="preserve">Контейнеры для суши </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные Zip-Lock</t>
+          <t>Контейнеры для суши универсальные многосекционные</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="K32" t="n">
-        <v>836.4</v>
+        <v>49.2</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>59.07562333233646</v>
+        <v>1008.155977295705</v>
       </c>
       <c r="N32" t="n">
-        <v>49410.85135516622</v>
+        <v>49601.2740829487</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2458,14 +2458,14 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B33" t="n">
-        <v>102486</v>
+        <v>102054</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Сетка упаковочная [рукав] 400ммх500м, красн., ПП (ООО Ситрона-Полимер)</t>
+          <t>Соусник под запайку 80 мл, 1-секц., d75х h34 мм, бел., ПП, 50 шт/упак (ЗАО Перинт)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>СИТРОНА-ПОЛИМЕР</t>
+          <t>ПЕРИНТ АО</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2485,33 +2485,33 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Упаковочные материал</t>
+          <t>Контейнеры под запай</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Сетки упаковочные_группа</t>
+          <t>Соусники под запайку</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4074074074074074</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>6122.559999999999</v>
+        <v>11.43</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>7.879490331833892</v>
+        <v>4326.940518361526</v>
       </c>
       <c r="N33" t="n">
-        <v>48242.65232607292</v>
+        <v>49456.93012487225</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2521,24 +2521,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>252</v>
+        <v>908</v>
       </c>
       <c r="B34" t="n">
-        <v>103313</v>
+        <v>112351</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Салфетки 250х250 мм 1-сл., бел., бум., 90 шт/упак (ИП Головкин С.В.)</t>
+          <t>Пакет Zip-Lock 150х220 мм, 35 мкм, прозр., ПВД, 100 шт/упак</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Головкин Сергей</t>
+          <t>Ирмас Лтд ТОО</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2548,33 +2548,33 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Салфетки сервировочн</t>
+          <t>Пакеты фасовочные</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Салфетки белые 1-слойные 24х24 (25х25)</t>
+          <t>Пакеты фасовочные Zip-Lock</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.584958217270195</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>107.9</v>
+        <v>836.4</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>442.7215209241416</v>
+        <v>59.07562333233646</v>
       </c>
       <c r="N34" t="n">
-        <v>47769.65210771487</v>
+        <v>49410.85135516622</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>867</v>
+        <v>184</v>
       </c>
       <c r="B35" t="n">
-        <v>111875</v>
+        <v>102486</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Контейнер 800 мл, 209х127х55мм "OSQ" OpSalad 800, без окна, без крышки, коричн., карт., 50 шт/упак</t>
+          <t>Сетка упаковочная [рукав] 400ммх500м, красн., ПП (ООО Ситрона-Полимер)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>СИТРОНА-ПОЛИМЕР</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2611,22 +2611,22 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Контейнеры из натура</t>
+          <t>Упаковочные материал</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные картонные прямоугольные 750-999 мл</t>
+          <t>Сетки упаковочные_группа</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4395604395604396</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="K35" t="n">
-        <v>41.88</v>
+        <v>6122.559999999999</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2634,10 +2634,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1117.343924751482</v>
+        <v>7.879490331833892</v>
       </c>
       <c r="N35" t="n">
-        <v>46794.36356859207</v>
+        <v>48242.65232607292</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2647,14 +2647,14 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="B36" t="n">
-        <v>100843</v>
+        <v>103313</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Стакан бумажный 350 мл 1 сл., d90 мм, крафт, карт., 50 шт/упак (ООО Классика-Опт)</t>
+          <t>Салфетки 250х250 мм 1-сл., бел., бум., 90 шт/упак (ИП Головкин С.В.)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>КЛАССИКА-ОПТ ОО</t>
+          <t>Головкин Сергей</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2674,33 +2674,33 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Салфетки сервировочн</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Стаканы бумажные 300-390 мл белые, крафт 1-слойные</t>
+          <t>Салфетки белые 1-слойные 24х24 (25х25)</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9420289855072463</v>
+        <v>0.584958217270195</v>
       </c>
       <c r="K36" t="n">
-        <v>25.71</v>
+        <v>107.9</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1810.19313669313</v>
+        <v>442.7215209241416</v>
       </c>
       <c r="N36" t="n">
-        <v>46540.06554438038</v>
+        <v>47769.65210771487</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2710,24 +2710,24 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>11</v>
+        <v>867</v>
       </c>
       <c r="B37" t="n">
-        <v>100120</v>
+        <v>111875</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 100 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
+          <t>Контейнер 800 мл, 209х127х55мм "OSQ" OpSalad 800, без окна, без крышки, коричн., карт., 50 шт/упак</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ФЛАЙПАК-С ООО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2737,22 +2737,22 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Контейнеры из натура</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Стаканы ПП до 200 мл прозрачные</t>
+          <t>Контейнеры универсальные картонные прямоугольные 750-999 мл</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J37" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="K37" t="n">
-        <v>2.91</v>
+        <v>41.88</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2760,10 +2760,10 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>14801.7794616064</v>
+        <v>1117.343924751482</v>
       </c>
       <c r="N37" t="n">
-        <v>43073.17823327463</v>
+        <v>46794.36356859207</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2773,14 +2773,14 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>1267</v>
+        <v>68</v>
       </c>
       <c r="B38" t="n">
-        <v>472153</v>
+        <v>100843</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Средство для очистки кухонных плит "Synergetic" От жира и нагара, канистра, 5000 мл</t>
+          <t>Стакан бумажный 350 мл 1 сл., d90 мм, крафт, карт., 50 шт/упак (ООО Классика-Опт)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2790,32 +2790,32 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>СИНЕРГЕТИК ООО</t>
+          <t>КЛАССИКА-ОПТ ОО</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Бытовая и профессион</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Средства бытовые для очистки кухонных плит от 3.5 л</t>
+          <t>Стаканы бумажные 300-390 мл белые, крафт 1-слойные</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0.9420289855072463</v>
       </c>
       <c r="K38" t="n">
-        <v>3154.11</v>
+        <v>25.71</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>11.61580974434978</v>
+        <v>1810.19313669313</v>
       </c>
       <c r="N38" t="n">
-        <v>36637.54167275109</v>
+        <v>46540.06554438038</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2836,14 +2836,14 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1164</v>
+        <v>11</v>
       </c>
       <c r="B39" t="n">
-        <v>254306</v>
+        <v>100120</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ланч-бокс 3-секц. 250х207х61 мм, бел., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
+          <t>Стакан одноразовый 100 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХОЛДИНГ ПРОТЭК </t>
+          <t>ФЛАЙПАК-С ООО</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2863,33 +2863,33 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Лотки и ланч-боксы</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Ланч-боксы ВПС 3-секционные белые</t>
+          <t>Стаканы ПП до 200 мл прозрачные</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>20.03</v>
+        <v>2.91</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1769.187444411215</v>
+        <v>14801.7794616064</v>
       </c>
       <c r="N39" t="n">
-        <v>35436.82451155665</v>
+        <v>43073.17823327463</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2899,14 +2899,14 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>446</v>
+        <v>1164</v>
       </c>
       <c r="B40" t="n">
-        <v>106653</v>
+        <v>254306</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Супница 445 мл, d97х h85 мм "OSQ" ECO Soup 16W, крышка в компл., бел., карт., 25 шт/упак</t>
+          <t>Ланч-бокс 3-секц. 250х207х61 мм, бел., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2916,43 +2916,43 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t xml:space="preserve">ХОЛДИНГ ПРОТЭК </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Супницы и крышки</t>
+          <t>Лотки и ланч-боксы</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Супницы 300-499 мл</t>
+          <t>Ланч-боксы ВПС 3-секционные белые</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5280898876404494</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>115.44</v>
+        <v>19.6</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>299.1567582152666</v>
+        <v>1769.187444411215</v>
       </c>
       <c r="N40" t="n">
-        <v>34534.65616837038</v>
+        <v>34676.07391045982</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2962,14 +2962,14 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1188</v>
+        <v>446</v>
       </c>
       <c r="B41" t="n">
-        <v>291076</v>
+        <v>106653</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Бутылка ПЭТ 100 мл квадр., прозр., горло d 38 мм, крышка в компл., 600 шт/кор. (ООО Мастерпэт)</t>
+          <t>Супница 445 мл, d97х h85 мм "OSQ" ECO Soup 16W, крышка в компл., бел., карт., 25 шт/упак</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>МАСТЕРПЭТ ООО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2989,33 +2989,33 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ и крышки</t>
+          <t>Супницы и крышки</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ 0.25 л и менее широкое горло</t>
+          <t>Супницы 300-499 мл</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="K41" t="n">
-        <v>48.42</v>
+        <v>115.44</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>674.328392471926</v>
+        <v>299.1567582152666</v>
       </c>
       <c r="N41" t="n">
-        <v>32650.98076349066</v>
+        <v>34534.65616837038</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3025,14 +3025,14 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>911</v>
+        <v>1188</v>
       </c>
       <c r="B42" t="n">
-        <v>112368</v>
+        <v>291076</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Пакет Doy Pack 105х185 мм с окном 70мм, крафт, бум., 50 шт/упак (ООО Витон)</t>
+          <t>Бутылка ПЭТ 100 мл квадр., прозр., горло d 38 мм, крышка в компл., 600 шт/кор. (ООО Мастерпэт)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3042,22 +3042,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ВИТОН ООО</t>
+          <t>МАСТЕРПЭТ ООО</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные</t>
+          <t>Бутылки ПЭТ и крышки</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Пакеты бумажные Doy Pack</t>
+          <t>Бутылки ПЭТ 0.25 л и менее широкое горло</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>30.61</v>
+        <v>48.42</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>905.8262244291592</v>
+        <v>674.328392471926</v>
       </c>
       <c r="N42" t="n">
-        <v>27727.34072977656</v>
+        <v>32650.98076349066</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3088,14 +3088,14 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>8</v>
+        <v>911</v>
       </c>
       <c r="B43" t="n">
-        <v>100084</v>
+        <v>112368</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Перчатки одноразовые "Elpi", размер M, 6 мкм, прозр., ПЭ, 50 пар/упак</t>
+          <t>Пакет Doy Pack 105х185 мм с окном 70мм, крафт, бум., 50 шт/упак (ООО Витон)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ЭЛПИ-ТРЕЙД ООО</t>
+          <t>ВИТОН ООО</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3115,22 +3115,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Средства индивидуаль</t>
+          <t>Пакеты фасовочные</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Перчатки ПЭ стандартной прочности размер M</t>
+          <t>Пакеты бумажные Doy Pack</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9409409409409409</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>96.24000000000001</v>
+        <v>30.61</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3138,10 +3138,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>274.1411890108963</v>
+        <v>905.8262244291592</v>
       </c>
       <c r="N43" t="n">
-        <v>26383.34803040866</v>
+        <v>27727.34072977656</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3151,14 +3151,14 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1169</v>
+        <v>8</v>
       </c>
       <c r="B44" t="n">
-        <v>254602</v>
+        <v>100084</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ланч-бокс 2-секц. 250х210х65 мм "Алпина", черн., ВПС 100 шт/кор</t>
+          <t>Перчатки одноразовые "Elpi", размер M, 6 мкм, прозр., ПЭ, 50 пар/упак</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>АЛПИНА ООО</t>
+          <t>ЭЛПИ-ТРЕЙД ООО</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3178,22 +3178,22 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Лотки и ланч-боксы</t>
+          <t>Средства индивидуаль</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Ланч-боксы ВПС 2-секционные черные</t>
+          <t>Перчатки ПЭ стандартной прочности размер M</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0.9409409409409409</v>
       </c>
       <c r="K44" t="n">
-        <v>21.66</v>
+        <v>96.24000000000001</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3201,10 +3201,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1181.51246664673</v>
+        <v>274.1411890108963</v>
       </c>
       <c r="N44" t="n">
-        <v>25591.56002756817</v>
+        <v>26383.34803040866</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3214,14 +3214,14 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>123</v>
+        <v>1169</v>
       </c>
       <c r="B45" t="n">
-        <v>101623</v>
+        <v>254602</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Губка металлическая для посуды d80 x h20 мм "Soft Tex", нерж., 10 шт/упак</t>
+          <t>Ланч-бокс 2-секц. 250х210х65 мм "Алпина", черн., ВПС 100 шт/кор</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ОПТИТРЕЙД ООО</t>
+          <t>АЛПИНА ООО</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3241,12 +3241,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Инвентарь для уборки</t>
+          <t>Лотки и ланч-боксы</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Губки металические</t>
+          <t>Ланч-боксы ВПС 2-секционные черные</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>348.44</v>
+        <v>21.66</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3264,10 +3264,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>72.08962155349538</v>
+        <v>1181.51246664673</v>
       </c>
       <c r="N45" t="n">
-        <v>25118.90773409993</v>
+        <v>25591.56002756817</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3277,14 +3277,14 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1165</v>
+        <v>123</v>
       </c>
       <c r="B46" t="n">
-        <v>254501</v>
+        <v>101623</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 250х210х65 мм "Алпина", бел., ВПС 100 шт/кор</t>
+          <t>Губка металлическая для посуды d80 x h20 мм "Soft Tex", нерж., 10 шт/упак</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>АЛПИНА ООО</t>
+          <t>ОПТИТРЕЙД ООО</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3304,33 +3304,33 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Лотки и ланч-боксы</t>
+          <t>Инвентарь для уборки</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Ланч-боксы ВПС 1-секционные белые</t>
+          <t>Губки металические</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9505882352941176</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>21.66</v>
+        <v>348.44</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1158.448919068645</v>
+        <v>72.08962155349538</v>
       </c>
       <c r="N46" t="n">
-        <v>25092.00358702686</v>
+        <v>25118.90773409993</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3340,24 +3340,24 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>600</v>
+        <v>1165</v>
       </c>
       <c r="B47" t="n">
-        <v>109414</v>
+        <v>254501</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Мыло жидкое антибактериальное "Silver" Regular, бутылка ПЭТ, 5000 мл</t>
+          <t>Ланч-бокс 1-секц. 250х210х65 мм "Алпина", бел., ВПС 100 шт/кор</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ИП Platinum Sha</t>
+          <t>АЛПИНА ООО</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3367,22 +3367,22 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Бытовая и профессион</t>
+          <t>Лотки и ланч-боксы</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Мыло жидкое антибактериальное от 3.5 л в бутылках ПЭТ</t>
+          <t>Ланч-боксы ВПС 1-секционные белые</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5963302752293578</v>
+        <v>0.9505882352941176</v>
       </c>
       <c r="K47" t="n">
-        <v>996.3</v>
+        <v>21.66</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3390,10 +3390,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>25.15461437417148</v>
+        <v>1158.448919068645</v>
       </c>
       <c r="N47" t="n">
-        <v>25061.54230098704</v>
+        <v>25092.00358702686</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3403,24 +3403,24 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>242</v>
+        <v>600</v>
       </c>
       <c r="B48" t="n">
-        <v>103156</v>
+        <v>109414</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Вилка одноразовая 160 мм, бел., ПС, 100 шт/упак (ООО Пласт-Сервис Плюс)</t>
+          <t>Мыло жидкое антибактериальное "Silver" Regular, бутылка ПЭТ, 5000 мл</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ПЛАСТ-СЕРВИС ПЛ</t>
+          <t>ИП Platinum Sha</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3430,22 +3430,22 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Бытовая и профессион</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Вилки пластиковые белые до 165 мм</t>
+          <t>Мыло жидкое антибактериальное от 3.5 л в бутылках ПЭТ</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J48" t="n">
-        <v>0.3695150115473441</v>
+        <v>0.5963302752293578</v>
       </c>
       <c r="K48" t="n">
-        <v>3.91</v>
+        <v>996.3</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3453,10 +3453,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>6067.95807109178</v>
+        <v>25.15461437417148</v>
       </c>
       <c r="N48" t="n">
-        <v>23725.71605796886</v>
+        <v>25061.54230098704</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -3466,14 +3466,14 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="B49" t="n">
-        <v>105179</v>
+        <v>103156</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 300 мл, прозр., ПП, 50 шт/упак (ООО Флайпак-С)</t>
+          <t>Вилка одноразовая 160 мм, бел., ПС, 100 шт/упак (ООО Пласт-Сервис Плюс)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ФЛАЙПАК-С ООО</t>
+          <t>ПЛАСТ-СЕРВИС ПЛ</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3493,33 +3493,33 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Стаканы ПП 250-450 мл прозрачные</t>
+          <t>Вилки пластиковые белые до 165 мм</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0.3695150115473441</v>
       </c>
       <c r="K49" t="n">
-        <v>8.59</v>
+        <v>3.91</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>2614.086564528455</v>
+        <v>6067.95807109178</v>
       </c>
       <c r="N49" t="n">
-        <v>22455.00358929943</v>
+        <v>23725.71605796886</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3529,14 +3529,14 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>1223</v>
+        <v>356</v>
       </c>
       <c r="B50" t="n">
-        <v>345044</v>
+        <v>105179</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
+          <t>Стакан одноразовый 300 мл, прозр., ПП, 50 шт/упак (ООО Флайпак-С)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
+          <t>ФЛАЙПАК-С ООО</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3556,33 +3556,33 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Размешиватели из натуральных материалов</t>
+          <t>Стаканы ПП 250-450 мл прозрачные</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2941176470588235</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1.72</v>
+        <v>8.59</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>12472.73516662608</v>
+        <v>2614.086564528455</v>
       </c>
       <c r="N50" t="n">
-        <v>21453.10448659685</v>
+        <v>22455.00358929943</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3592,14 +3592,14 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1064</v>
+        <v>1223</v>
       </c>
       <c r="B51" t="n">
-        <v>154515</v>
+        <v>345044</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Контейнер под запайку 770 мл, 1-секц. 187х137х45 мм "ПолиЭр", черн., ПП, 50 шт/упак</t>
+          <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3609,43 +3609,43 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Контейнеры под запай</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Контейнеры под запайку пластиковые прямоугольные 1-секционные черные и проч.</t>
+          <t>Размешиватели из натуральных материалов</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K51" t="n">
-        <v>24.36</v>
+        <v>1.72</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>794.4982059584378</v>
+        <v>12472.73516662608</v>
       </c>
       <c r="N51" t="n">
-        <v>19353.97629714754</v>
+        <v>21453.10448659685</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3655,14 +3655,14 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B52" t="n">
-        <v>155497</v>
+        <v>154515</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. 108х82х106 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
+          <t>Контейнер под запайку 770 мл, 1-секц. 187х137х45 мм "ПолиЭр", черн., ПП, 50 шт/упак</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3672,43 +3672,43 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>АЛЬКОР ООО</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Контейнеры под запай</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП прямоугольные прозрачные 500-749 мл</t>
+          <t>Контейнеры под запайку пластиковые прямоугольные 1-секционные черные и проч.</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.6608853765997622</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>9.800000000000001</v>
+        <v>24.36</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1915.132191698197</v>
+        <v>794.4982059584378</v>
       </c>
       <c r="N52" t="n">
-        <v>18768.29547864233</v>
+        <v>19353.97629714754</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3718,14 +3718,14 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1154</v>
+        <v>1066</v>
       </c>
       <c r="B53" t="n">
-        <v>250012</v>
+        <v>155497</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Коробка для пиццы 220х220х40 мм треуг. "OSQ" ECO Pie Bio, крафт, микрогофрокарт.Т-11 Е, 100 шт/упак</t>
+          <t>Контейнер 500 мл 1-секц. 108х82х106 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>АЛЬКОР ООО</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3745,22 +3745,22 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Коробки для пиццы</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Коробки для пиццы крафт из микрогофрокартона</t>
+          <t>Контейнеры универсальные ПП прямоугольные прозрачные 500-749 мл</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0.6608853765997622</v>
       </c>
       <c r="K53" t="n">
-        <v>43.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3768,10 +3768,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>396.4867112539415</v>
+        <v>1915.132191698197</v>
       </c>
       <c r="N53" t="n">
-        <v>17346.29361735994</v>
+        <v>18768.29547864233</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3781,14 +3781,14 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>656</v>
+        <v>1154</v>
       </c>
       <c r="B54" t="n">
-        <v>110398</v>
+        <v>250012</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Крышка прямоуг., 108х82х8мм, п/прозрачн., ПП</t>
+          <t>Коробка для пиццы 220х220х40 мм треуг. "OSQ" ECO Pie Bio, крафт, микрогофрокарт.Т-11 Е, 100 шт/упак</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>АЛЬКОР ООО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3808,22 +3808,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Коробки для пиццы</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Крышки к прямоугольным контейнерам универсальные ПП длиной до 150 мм</t>
+          <t>Коробки для пиццы крафт из микрогофрокартона</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3937007874015748</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>4205.980487804878</v>
+        <v>43.75</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3831,10 +3831,10 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>3.680045410060303</v>
+        <v>396.4867112539415</v>
       </c>
       <c r="N54" t="n">
-        <v>15478.19918894953</v>
+        <v>17346.29361735994</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3844,14 +3844,14 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>527</v>
+        <v>656</v>
       </c>
       <c r="B55" t="n">
-        <v>108185</v>
+        <v>110398</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Пакет [240+140]х280 мм с плоск. ручками, крафт, бум., 300 шт/кор. (ООО Тек-Пак)</t>
+          <t>Крышка прямоуг., 108х82х8мм, п/прозрачн., ПП</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>АЛЬКОР ООО</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3871,22 +3871,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Пакеты-сумки</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Пакеты бумажные с плоскими ручками бурый крафт</t>
+          <t>Крышки к прямоугольным контейнерам универсальные ПП длиной до 150 мм</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4046242774566474</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="K55" t="n">
-        <v>38.57</v>
+        <v>4205.980487804878</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -3894,10 +3894,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>366.2618124762197</v>
+        <v>3.680045410060303</v>
       </c>
       <c r="N55" t="n">
-        <v>14126.71810720779</v>
+        <v>15478.19918894953</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3907,14 +3907,14 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>313</v>
+        <v>527</v>
       </c>
       <c r="B56" t="n">
-        <v>104218</v>
+        <v>108185</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 200 мл "МИСТЕРИЯ", бел., ПП, 100 шт/упак</t>
+          <t>Пакет [240+140]х280 мм с плоск. ручками, крафт, бум., 300 шт/кор. (ООО Тек-Пак)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t>ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3934,22 +3934,22 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Пакеты-сумки</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Стаканы ПП 200 мл белые</t>
+          <t>Пакеты бумажные с плоскими ручками бурый крафт</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8349587396849212</v>
+        <v>0.4046242774566474</v>
       </c>
       <c r="K56" t="n">
-        <v>3.5</v>
+        <v>38.57</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3957,10 +3957,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>3887.780938377975</v>
+        <v>366.2618124762197</v>
       </c>
       <c r="N56" t="n">
-        <v>13607.23328432291</v>
+        <v>14126.71810720779</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3970,14 +3970,14 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>496</v>
+        <v>313</v>
       </c>
       <c r="B57" t="n">
-        <v>107441</v>
+        <v>104218</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Крышка для стакана d 95 мм "Upax-Unity" куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак</t>
+          <t>Стакан одноразовый 200 мл "МИСТЕРИЯ", бел., ПП, 100 шт/упак</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4002,17 +4002,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Крышки ПЭТ куполообразные</t>
+          <t>Стаканы ПП 200 мл белые</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>0.913948774645292</v>
+        <v>0.8349587396849212</v>
       </c>
       <c r="K57" t="n">
-        <v>7.88</v>
+        <v>3.5</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -4020,10 +4020,10 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1581.048757203898</v>
+        <v>3887.780938377975</v>
       </c>
       <c r="N57" t="n">
-        <v>12458.66420676672</v>
+        <v>13607.23328432291</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4033,14 +4033,14 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>856</v>
+        <v>496</v>
       </c>
       <c r="B58" t="n">
-        <v>111611</v>
+        <v>107441</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру 132х120х13,5 мм "OSQ" OpSalad 350, прозр., ПЭТ 50 шт /упак</t>
+          <t>Крышка для стакана d 95 мм "Upax-Unity" куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4060,33 +4060,33 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Крышки к прямоугольным контейнерам универсальные ПЭТ</t>
+          <t>Крышки ПЭТ куполообразные</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8059701492537313</v>
+        <v>0.913948774645292</v>
       </c>
       <c r="K58" t="n">
-        <v>19.89</v>
+        <v>7.88</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>517.4222980153029</v>
+        <v>1581.048757203898</v>
       </c>
       <c r="N58" t="n">
-        <v>10291.52950752437</v>
+        <v>12458.66420676672</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4096,14 +4096,14 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1212</v>
+        <v>856</v>
       </c>
       <c r="B59" t="n">
-        <v>342033</v>
+        <v>111611</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые (ООО Фарт)</t>
+          <t>Крышка к контейнеру 132х120х13,5 мм "OSQ" OpSalad 350, прозр., ПЭТ 50 шт /упак</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4113,32 +4113,32 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ФАРТ ООО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей пластиковые прямые D 7-12 мм</t>
+          <t>Крышки к прямоугольным контейнерам универсальные ПЭТ</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0.8059701492537313</v>
       </c>
       <c r="K59" t="n">
-        <v>538.11</v>
+        <v>19.89</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>18.11652448858319</v>
+        <v>517.4222980153029</v>
       </c>
       <c r="N59" t="n">
-        <v>9748.682992551499</v>
+        <v>10291.52950752437</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4159,14 +4159,14 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>692</v>
+        <v>1212</v>
       </c>
       <c r="B60" t="n">
-        <v>110916</v>
+        <v>342033</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Коробка для лапши 500 мл, d103хh98 мм "Papperskop", бел., карт. лам., 30 шт/упак</t>
+          <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые (ООО Фарт)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ФАРТ ООО</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Упаковка пищевая бум</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Коробки для лапши с круглым дном без дизайна</t>
+          <t>Трубочки для коктейлей пластиковые прямые D 7-12 мм</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4201,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>46.95</v>
+        <v>538.11</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4209,10 +4209,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>189.0419946634766</v>
+        <v>18.11652448858319</v>
       </c>
       <c r="N60" t="n">
-        <v>8875.521649450227</v>
+        <v>9748.682992551499</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4222,19 +4222,19 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1005</v>
+        <v>692</v>
       </c>
       <c r="B61" t="n">
-        <v>113373</v>
+        <v>110916</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Стакан бумажный 250 мл 1 сл., d80 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Коробка для лапши 500 мл, d103хh98 мм "Papperskop", бел., карт. лам., 30 шт/упак</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4244,17 +4244,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Упаковка пищевая бум</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Стаканы бумажные 250-290 мл цветные, с дизайном 1-слойные</t>
+          <t>Коробки для лапши с круглым дном без дизайна</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>15.33</v>
+        <v>46.95</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -4272,10 +4272,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>575.3499555289723</v>
+        <v>189.0419946634766</v>
       </c>
       <c r="N61" t="n">
-        <v>8820.114818259144</v>
+        <v>8875.521649450227</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -4285,14 +4285,14 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>424</v>
+        <v>1005</v>
       </c>
       <c r="B62" t="n">
-        <v>106396</v>
+        <v>113373</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, без крышки, черн., ПП, 500 шт/кор.</t>
+          <t>Стакан бумажный 250 мл 1 сл., d80 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4312,33 +4312,33 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП прямоугольные черные от 750 мл</t>
+          <t>Стаканы бумажные 250-290 мл цветные, с дизайном 1-слойные</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0.591715976331361</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>17.84</v>
+        <v>15.33</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>475.645662615314</v>
+        <v>575.3499555289723</v>
       </c>
       <c r="N62" t="n">
-        <v>8485.518621057201</v>
+        <v>8820.114818259144</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -4348,24 +4348,24 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>651</v>
+        <v>424</v>
       </c>
       <c r="B63" t="n">
-        <v>110386</v>
+        <v>106396</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Нагрудники для взрослых одноразовые 2 сл., 370 х 560 мм, бел., бум., 100 шт/рул</t>
+          <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, без крышки, черн., ПП, 500 шт/кор.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ПРОСПЕР-7 ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4375,22 +4375,22 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Средства индивидуаль</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Нагрудники</t>
+          <t>Контейнеры универсальные ПП прямоугольные черные от 750 мл</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.591715976331361</v>
       </c>
       <c r="K63" t="n">
-        <v>5540.88</v>
+        <v>17.84</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4398,10 +4398,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1.258884445090844</v>
+        <v>475.645662615314</v>
       </c>
       <c r="N63" t="n">
-        <v>6975.327644114957</v>
+        <v>8485.518621057201</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -4411,24 +4411,24 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>369</v>
+        <v>651</v>
       </c>
       <c r="B64" t="n">
-        <v>105386</v>
+        <v>110386</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Соусник 80 мл, d71,5 х h34 мм, неразъем. крышка, прозр., ПП, 80 шт/упак</t>
+          <t>Нагрудники для взрослых одноразовые 2 сл., 370 х 560 мм, бел., бум., 100 шт/рул</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ПРОСПЕР-7 ООО</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4438,33 +4438,33 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Соусники и крышки</t>
+          <t>Средства индивидуаль</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Соусники ПП с неразъемной крышкой от 50 мл</t>
+          <t>Нагрудники</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="K64" t="n">
-        <v>13.53</v>
+        <v>5540.88</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>476.6989235750626</v>
+        <v>1.258884445090844</v>
       </c>
       <c r="N64" t="n">
-        <v>6449.736435970597</v>
+        <v>6975.327644114957</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -4474,49 +4474,49 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1240</v>
+        <v>369</v>
       </c>
       <c r="B65" t="n">
-        <v>440037</v>
+        <v>105386</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Салфетка влажная "МИСТЕРИЯ" Лимон, саше, 1000 шт/кор</t>
+          <t>Соусник 80 мл, d71,5 х h34 мм, неразъем. крышка, прозр., ПП, 80 шт/упак</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>АВИАТЕКС ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Гигиенические товары</t>
+          <t>Соусники и крышки</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Салфетки влажные в индивидуальной упаковке</t>
+          <t>Соусники ПП с неразъемной крышкой от 50 мл</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>5.97</v>
+        <v>13.53</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>887.3029907928841</v>
+        <v>476.6989235750626</v>
       </c>
       <c r="N65" t="n">
-        <v>5297.198855033518</v>
+        <v>6449.736435970597</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -4537,14 +4537,14 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>91</v>
+        <v>1240</v>
       </c>
       <c r="B66" t="n">
-        <v>101228</v>
+        <v>440037</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Коробка для пиццы 330х330х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор. (OOO КТК)</t>
+          <t>Салфетка влажная "МИСТЕРИЯ" Лимон, саше, 1000 шт/кор</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4554,32 +4554,32 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>КТК ООО</t>
+          <t>АВИАТЕКС ООО</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Коробки для пиццы</t>
+          <t>Гигиенические товары</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Коробки для пиццы белые из микрогофрокартона 300-390 мм</t>
+          <t>Салфетки влажные в индивидуальной упаковке</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K66" t="n">
-        <v>80.08</v>
+        <v>5.97</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -4587,10 +4587,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>39.38374888822431</v>
+        <v>887.3029907928841</v>
       </c>
       <c r="N66" t="n">
-        <v>3153.850610969003</v>
+        <v>5297.198855033518</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -4600,14 +4600,14 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>564</v>
+        <v>91</v>
       </c>
       <c r="B67" t="n">
-        <v>108567</v>
+        <v>101228</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Бумага туалетная для диспенсеров "Focus" Mini Jumbo 2-сл., бел., 170 м</t>
+          <t>Коробка для пиццы 330х330х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор. (OOO КТК)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
+          <t>КТК ООО</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4627,12 +4627,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Бумага туалетная</t>
+          <t>Коробки для пиццы</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Бумага туалетная для диспенсеров в рулонах 2-слойная из целлюлозы</t>
+          <t>Коробки для пиццы белые из микрогофрокартона 300-390 мм</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4642,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>655.61</v>
+        <v>80.08</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>4.726049866586916</v>
+        <v>39.38374888822431</v>
       </c>
       <c r="N67" t="n">
-        <v>3098.445553033048</v>
+        <v>3153.850610969003</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -4663,49 +4663,49 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>953</v>
+        <v>564</v>
       </c>
       <c r="B68" t="n">
-        <v>112803</v>
+        <v>108567</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Средство для мытья пола и твердых поверхностей "Platinum Sharks", канистра, 5000 мл</t>
+          <t>Бумага туалетная для диспенсеров "Focus" Mini Jumbo 2-сл., бел., 170 м</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ИП Platinum Sha</t>
+          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Бытовая и профессион</t>
+          <t>Бумага туалетная</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Средства бытовые для мытья полов от 3.5 л</t>
+          <t>Бумага туалетная для диспенсеров в рулонах 2-слойная из целлюлозы</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1230</v>
+        <v>655.61</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -4713,10 +4713,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>2.116816311709256</v>
+        <v>4.726049866586916</v>
       </c>
       <c r="N68" t="n">
-        <v>2603.684063402385</v>
+        <v>3098.445553033048</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -4726,49 +4726,49 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>576</v>
+        <v>953</v>
       </c>
       <c r="B69" t="n">
-        <v>108712</v>
+        <v>112803</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров  "Focus" Jumbo Industrial  2-сл., голуб., 350 м</t>
+          <t>Средство для мытья пола и твердых поверхностей "Platinum Sharks", канистра, 5000 мл</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
+          <t>ИП Platinum Sha</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Полотенца бумажные</t>
+          <t>Бытовая и профессион</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров в рулонах с центральной вытяжкой 1-слойные из целлюлозы</t>
+          <t>Средства бытовые для мытья полов от 3.5 л</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K69" t="n">
-        <v>6389.51</v>
+        <v>1230</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -4776,10 +4776,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>0.3938374888822431</v>
+        <v>2.116816311709256</v>
       </c>
       <c r="N69" t="n">
-        <v>2516.428573587981</v>
+        <v>2603.684063402385</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4789,14 +4789,14 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1258</v>
+        <v>576</v>
       </c>
       <c r="B70" t="n">
-        <v>451459</v>
+        <v>108712</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров 240 х 215 мм "Focus" Eco 3-сл., Z-сложен., бел., 200 лист/упак</t>
+          <t>Полотенца бумажные для диспенсеров  "Focus" Jumbo Industrial  2-сл., голуб., 350 м</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров Z-сложение 1-слойные из макулатуры</t>
+          <t>Полотенца бумажные для диспенсеров в рулонах с центральной вытяжкой 1-слойные из целлюлозы</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>505.47</v>
+        <v>6389.51</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>4.726049866586917</v>
+        <v>0.3938374888822431</v>
       </c>
       <c r="N70" t="n">
-        <v>2388.876426063689</v>
+        <v>2516.428573587981</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4852,14 +4852,14 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>550</v>
+        <v>1258</v>
       </c>
       <c r="B71" t="n">
-        <v>108410</v>
+        <v>451459</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров 240 х 200 мм "Focus" Premium 2-сл., Z-сложен., бел., 200 лист/упа</t>
+          <t>Полотенца бумажные для диспенсеров 240 х 215 мм "Focus" Eco 3-сл., Z-сложен., бел., 200 лист/упак</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров Z-сложение 2-слойные из целлюлозы</t>
+          <t>Полотенца бумажные для диспенсеров Z-сложение 1-слойные из макулатуры</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>488.85</v>
+        <v>505.47</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -4902,10 +4902,10 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>4.726049866586916</v>
+        <v>4.726049866586917</v>
       </c>
       <c r="N71" t="n">
-        <v>2310.329477281014</v>
+        <v>2388.876426063689</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4915,14 +4915,14 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1251</v>
+        <v>550</v>
       </c>
       <c r="B72" t="n">
-        <v>451357</v>
+        <v>108410</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров "Focus" Jumbo 1-сл., с центр.вытяжкой, бел., 120 м</t>
+          <t>Полотенца бумажные для диспенсеров 240 х 200 мм "Focus" Premium 2-сл., Z-сложен., бел., 200 лист/упа</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров в рулонах с центральной вытяжкой 1-слойные из целлюлозы</t>
+          <t>Полотенца бумажные для диспенсеров Z-сложение 2-слойные из целлюлозы</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>691.0500000000001</v>
+        <v>488.85</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -4965,10 +4965,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>2.363024933293458</v>
+        <v>4.726049866586916</v>
       </c>
       <c r="N72" t="n">
-        <v>1632.968380152445</v>
+        <v>2310.329477281014</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4978,24 +4978,24 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>373</v>
+        <v>1251</v>
       </c>
       <c r="B73" t="n">
-        <v>105398</v>
+        <v>451357</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Контейнер 750 мл 1-секц. 186х132х45 мм серия 186, без крышки, черн., ПП, 500 шт/кор. (ТОО Аке Пласт)</t>
+          <t>Полотенца бумажные для диспенсеров "Focus" Jumbo 1-сл., с центр.вытяжкой, бел., 120 м</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5005,33 +5005,33 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Полотенца бумажные</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП прямоугольные черные от 750 мл</t>
+          <t>Полотенца бумажные для диспенсеров в рулонах с центральной вытяжкой 1-слойные из целлюлозы</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0.373134328358209</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>15.99</v>
+        <v>691.0500000000001</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>27.44174335942989</v>
+        <v>2.363024933293458</v>
       </c>
       <c r="N73" t="n">
-        <v>438.793476317284</v>
+        <v>1632.968380152445</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5041,24 +5041,24 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>897</v>
+        <v>373</v>
       </c>
       <c r="B74" t="n">
-        <v>112282</v>
+        <v>105398</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Соль порционная 1 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+          <t>Контейнер 750 мл 1-секц. 186х132х45 мм серия 186, без крышки, черн., ПП, 500 шт/кор. (ТОО Аке Пласт)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5068,33 +5068,33 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Соль</t>
+          <t>Контейнеры универсальные ПП прямоугольные черные от 750 мл</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="K74" t="n">
-        <v>1.01</v>
+        <v>15.99</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>393.8374888822431</v>
+        <v>27.44174335942989</v>
       </c>
       <c r="N74" t="n">
-        <v>397.7758637710655</v>
+        <v>438.793476317284</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5104,62 +5104,125 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B75" t="n">
+        <v>112282</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Соль порционная 1 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ВЗЛП ООО</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Барные аксессуары</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Хорошие новинки</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>393.8374888822431</v>
+      </c>
+      <c r="N75" t="n">
+        <v>397.7758637710655</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Дефицит</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>866</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B76" t="n">
         <v>111844</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Полотенца бумажные "Familia" XXL, 2-сл., 25 м, 2 рул/упак</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>Полотенца бумажные</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Полотенца бумажные бытовые в рулонах 2-слойные из целлюлозы</t>
         </is>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="n">
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
         <v>808.1</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>Хорошие новинки</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="M76" t="n">
         <v>0.4577982929345978</v>
       </c>
-      <c r="N75" t="n">
+      <c r="N76" t="n">
         <v>369.9468005204485</v>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>Дефицит</t>
         </is>
